--- a/InputData/indst/PPRiFUfICaWHR/Pot Perc Red in Fuel Use fr Inc Cogen and WHR.xlsx
+++ b/InputData/indst/PPRiFUfICaWHR/Pot Perc Red in Fuel Use fr Inc Cogen and WHR.xlsx
@@ -1,119 +1,250 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\indst\PPRiFUfICaWHR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariz\Desktop\Variáveis marianne FINAL\indst\PPRiFUfICaWHR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09DA4CC-E915-4CEC-9F20-E6B69AC49857}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="21075" windowHeight="11055"/>
+    <workbookView xWindow="-19308" yWindow="-108" windowWidth="19416" windowHeight="10416" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="Data" sheetId="2" r:id="rId2"/>
+    <sheet name="Data BR" sheetId="8" r:id="rId2"/>
     <sheet name="PPRiFUfICaWHR" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={5E7509BF-C959-4EF4-B2CB-6ECEFE100AB6}</author>
+  </authors>
+  <commentList>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{5E7509BF-C959-4EF4-B2CB-6ECEFE100AB6}">
+      <text>
+        <t>[Comentário encadeado]
+Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
+    Modelagem integrada e Impactos Econômicos de Opções Setoriais de Baixo Carbono/ (Opções de mitigação de emissões de gases de efeito estufa em
+setores-chave do Brasil)
+Table 6 - page 55</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
-  <si>
-    <t>Source:</t>
-  </si>
-  <si>
-    <t>Rocky Mountain Institute</t>
-  </si>
-  <si>
-    <t>Reinventing Fire</t>
-  </si>
-  <si>
-    <t>http://www.rmi.org/RFGraph-US_industry_energy_saving_potential</t>
-  </si>
-  <si>
-    <t>Book page 127, Figure 4-2 (or see link above)</t>
-  </si>
-  <si>
-    <t>Item</t>
-  </si>
-  <si>
-    <t>2050 business-as-usual</t>
-  </si>
-  <si>
-    <t>Energy Use (quadrillion BTU/yr)</t>
-  </si>
-  <si>
-    <t>Percentage Savings in 2050</t>
-  </si>
-  <si>
-    <t>Percentage Savings in 2030 (model end year)</t>
-  </si>
-  <si>
-    <t>CHP waste heat</t>
-  </si>
-  <si>
-    <t>Model End Year</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="53">
+  <si>
+    <t>cement and other carbonates</t>
+  </si>
+  <si>
+    <t>natural gas and petroleum systems</t>
+  </si>
+  <si>
+    <t>iron and steel</t>
+  </si>
+  <si>
+    <t>chemicals</t>
+  </si>
+  <si>
+    <t>mining</t>
+  </si>
+  <si>
+    <t>waste management</t>
+  </si>
+  <si>
+    <t>agriculture</t>
+  </si>
+  <si>
+    <t>other industries</t>
+  </si>
+  <si>
+    <t>PPRiFUfICaWHR Potential Perc Reduction in Fuel Use from Increased Cogen and Waste Heat Recovery</t>
+  </si>
+  <si>
+    <t>Pot Perc Red in Fuel Use (dimensionless)</t>
+  </si>
+  <si>
+    <t>Sources:</t>
+  </si>
+  <si>
+    <t>Opções de mitigação de emissões de gases de efeito estufa em setores-chave do Brasil</t>
+  </si>
+  <si>
+    <t>Ministério da Ciência, Tecnologia, Inovações e Comunicações, ONU Meio Ambiente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table 6 - Main low carbon activities in the energy system, per sector, in scenario BC100, in 2030 and 2050. </t>
+  </si>
+  <si>
+    <t>Cement</t>
+  </si>
+  <si>
+    <t>Chemicals</t>
+  </si>
+  <si>
+    <t>Efficiency in heat recovery in processes</t>
+  </si>
+  <si>
+    <t>Efficiency in heat and steam recovery in processes</t>
+  </si>
+  <si>
+    <t>Cement and other carbonate use</t>
+  </si>
+  <si>
+    <t>Electricity</t>
+  </si>
+  <si>
+    <t>Coal</t>
+  </si>
+  <si>
+    <t>Natural Gas</t>
+  </si>
+  <si>
+    <t>(biofuel heat and coproducts) Biomass</t>
+  </si>
+  <si>
+    <t>Petroleum Diesel</t>
+  </si>
+  <si>
+    <t>Heavy or residual oil</t>
+  </si>
+  <si>
+    <t>LPG propane or butane</t>
+  </si>
+  <si>
+    <t>Natural gas and petroleum systems</t>
+  </si>
+  <si>
+    <t>Biomass</t>
+  </si>
+  <si>
+    <t>Iron and Steel</t>
+  </si>
+  <si>
+    <t>Water + Waste</t>
+  </si>
+  <si>
+    <t>Agriculture</t>
+  </si>
+  <si>
+    <t>Other industries (total, listed below)</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>From variable BIFUbC:</t>
+  </si>
+  <si>
+    <t>1000 toe/yr</t>
+  </si>
+  <si>
+    <t>TJ</t>
+  </si>
+  <si>
+    <t>Emission factors (tcO2/TJ) [IPCC 2006]:</t>
+  </si>
+  <si>
+    <t>Mitigation options cogen/WHR</t>
+  </si>
+  <si>
+    <t>pot % reduction fuel use:</t>
+  </si>
+  <si>
+    <t>Mitigation potential (MtCO2) in 2050</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1000 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TOE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+  </si>
+  <si>
+    <t>Emissions (MtCO2)</t>
+  </si>
+  <si>
+    <t>Efficiency in heat recovery in processes           Efficiency in steam recovery  in processes</t>
+  </si>
+  <si>
+    <t>Modelagem integrada e Impactos Econômicos de Opções Setoriais de Baixo Carbono</t>
   </si>
   <si>
     <t>Notes:</t>
   </si>
   <si>
-    <t>We do not apply this potential to Agriculture, due to its lack of large, heat-generating,</t>
-  </si>
-  <si>
-    <t>stationary equipment compared to other industries.</t>
-  </si>
-  <si>
-    <t>cement and other carbonates</t>
-  </si>
-  <si>
-    <t>natural gas and petroleum systems</t>
-  </si>
-  <si>
-    <t>iron and steel</t>
-  </si>
-  <si>
-    <t>chemicals</t>
-  </si>
-  <si>
-    <t>mining</t>
-  </si>
-  <si>
-    <t>waste management</t>
-  </si>
-  <si>
-    <t>agriculture</t>
-  </si>
-  <si>
-    <t>other industries</t>
-  </si>
-  <si>
-    <t>PPRiFUfICaWHR Potential Perc Reduction in Fuel Use from Increased Cogen and Waste Heat Recovery</t>
-  </si>
-  <si>
-    <t>Pot Perc Red in Fuel Use (dimensionless)</t>
+    <t xml:space="preserve">To calculate the potential perc reduction in fuel use from increased cogen and waste heat recovery, we used the energy consumption in each sector in 2050 calculated </t>
+  </si>
+  <si>
+    <t xml:space="preserve">in variable BIFUbC. Then, we listed the waste heat recovery measures in these sectors and their mitigation potential, described in the report above. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We used  the values according to scenario BC100 which considers all technologies available under a 100 US$/tCO2 carbon tax. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We used IPCC 2006 Emissions Factors to determine how much fuel was saved by these measures. </t>
+  </si>
+  <si>
+    <t>Integrated Modeling and Economic Impacts of Low Carbon Sector Options</t>
+  </si>
+  <si>
+    <t>Mitigation Options of Greenhouse Gas Emissions in Key Sectors in Brazil (MOP)</t>
+  </si>
+  <si>
+    <t>Ministry of Science, Technology, Innovation and Communications, UN Environment</t>
+  </si>
+  <si>
+    <t>https://www.mctic.gov.br/mctic/export/sites/institucional/ciencia/SEPED/clima/arquivos/projeto_opcoes_mitigacao/publicacoes/Modelagem-Integrada_impactos-economicos.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,6 +274,68 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -159,7 +352,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -173,40 +366,76 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+  <cellStyles count="2">
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -221,8 +450,14 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Marianne Zanon Zotin" id="{32ABF69D-D1BC-4559-847C-5420715D469C}" userId="04ef14839acedddd" providerId="Windows Live"/>
+</personList>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -297,6 +532,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -332,6 +584,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -506,69 +775,246 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="F1" dT="2020-03-02T12:10:33.53" personId="{32ABF69D-D1BC-4559-847C-5420715D469C}" id="{5E7509BF-C959-4EF4-B2CB-6ECEFE100AB6}">
+    <text>Modelagem integrada e Impactos Econômicos de Opções Setoriais de Baixo Carbono/ (Opções de mitigação de emissões de gases de efeito estufa em
+setores-chave do Brasil)
+Table 6 - page 55</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="41.1328125" customWidth="1"/>
-    <col min="3" max="3" width="29.86328125" customWidth="1"/>
+    <col min="2" max="2" width="41.109375" customWidth="1"/>
+    <col min="3" max="3" width="49.77734375" customWidth="1"/>
+    <col min="4" max="4" width="22.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B4" s="2">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B6" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="19"/>
+      <c r="D3" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="B5" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="B6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
+      <c r="D6" s="30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="B7" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" customHeight="1">
+      <c r="B8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
+    <row r="9" spans="1:9" ht="15" customHeight="1"/>
+    <row r="10" spans="1:9" s="20" customFormat="1">
+      <c r="A10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+    </row>
+    <row r="11" spans="1:9" s="20" customFormat="1">
+      <c r="A11"/>
+      <c r="B11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+    </row>
+    <row r="12" spans="1:9" s="20" customFormat="1">
+      <c r="A12"/>
+      <c r="B12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+    </row>
+    <row r="13" spans="1:9" s="20" customFormat="1" ht="13.2" customHeight="1">
+      <c r="A13"/>
+      <c r="B13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13"/>
+      <c r="D13" s="5"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+    </row>
+    <row r="14" spans="1:9" s="20" customFormat="1">
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+    </row>
+    <row r="15" spans="1:9" s="20" customFormat="1">
+      <c r="A15"/>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+    </row>
+    <row r="16" spans="1:9" s="20" customFormat="1">
+      <c r="A16"/>
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+    </row>
+    <row r="17" spans="1:7" s="20" customFormat="1">
+      <c r="A17"/>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+    </row>
+    <row r="18" spans="1:7" s="20" customFormat="1">
+      <c r="A18"/>
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+    </row>
+    <row r="19" spans="1:7" s="20" customFormat="1">
+      <c r="A19"/>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+    </row>
+    <row r="20" spans="1:7" s="20" customFormat="1">
+      <c r="A20"/>
+      <c r="B20" s="11"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+    </row>
+    <row r="21" spans="1:7" s="20" customFormat="1">
+      <c r="A21"/>
+      <c r="B21" s="11"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+    </row>
+    <row r="22" spans="1:7" s="20" customFormat="1">
+      <c r="A22"/>
+      <c r="B22" s="11"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+    </row>
+    <row r="23" spans="1:7" s="20" customFormat="1">
+      <c r="A23"/>
+      <c r="B23" s="11"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+    </row>
+    <row r="24" spans="1:7" s="20" customFormat="1">
+      <c r="A24"/>
+      <c r="B24" s="11"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+    </row>
+    <row r="25" spans="1:7" s="20" customFormat="1">
+      <c r="A25" s="1"/>
+      <c r="B25" s="11"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+    </row>
+    <row r="26" spans="1:7" s="20" customFormat="1">
+      <c r="A26" s="21"/>
+      <c r="B26" s="22"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1"/>
+    <hyperlink ref="B7" r:id="rId1" xr:uid="{A9D28B00-4F8F-4989-A992-1775085EA412}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
@@ -576,163 +1022,1452 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{518077D4-F5F8-4B90-A978-F19323494E31}">
+  <dimension ref="A1:H227"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="45.59765625" customWidth="1"/>
-    <col min="2" max="2" width="29.59765625" customWidth="1"/>
+    <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" customWidth="1"/>
+    <col min="6" max="6" width="47.77734375" customWidth="1"/>
+    <col min="7" max="7" width="17.21875" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2">
-        <v>30.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3">
-        <v>-2.4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="5">
-        <f>-B3/B2</f>
-        <v>7.8688524590163927E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="8">
+    <row r="1" spans="1:8" ht="14.4" customHeight="1">
+      <c r="A1" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="26">
         <v>2050</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="7">
-        <f>B5*(B6-2010)/(2050-2010)</f>
-        <v>7.8688524590163927E-2</v>
-      </c>
+      <c r="D1" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="B2" s="26"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5">
+        <v>567</v>
+      </c>
+      <c r="C5">
+        <f>B5*$B$53</f>
+        <v>23739.156000000003</v>
+      </c>
+      <c r="D5">
+        <v>0.2525</v>
+      </c>
+      <c r="E5" s="17">
+        <f t="shared" ref="E5:E10" si="0">B5*$B$53*D5/10^6</f>
+        <v>5.9941368900000005E-3</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5">
+        <v>3.5</v>
+      </c>
+      <c r="H5">
+        <f>G5*10^6/SUM(C6:C7,C9:C10)/SUM(D6:D7,D9:D10)</f>
+        <v>7.0724661933415978E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <v>148.4</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ref="C6:C50" si="1">B6*$B$53</f>
+        <v>6213.2112000000006</v>
+      </c>
+      <c r="D6">
+        <v>94.6</v>
+      </c>
+      <c r="E6" s="17">
+        <f t="shared" si="0"/>
+        <v>0.58776977951999998</v>
+      </c>
+      <c r="F6" s="27"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7">
+        <v>291.49999999999994</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>12204.521999999999</v>
+      </c>
+      <c r="D7">
+        <v>56.1</v>
+      </c>
+      <c r="E7" s="17">
+        <f t="shared" si="0"/>
+        <v>0.68467368419999997</v>
+      </c>
+      <c r="F7" s="27"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8">
+        <v>1083.9000000000001</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>45380.725200000008</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="27"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9">
+        <v>3179.7</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>133127.6796</v>
+      </c>
+      <c r="D9">
+        <v>97.5</v>
+      </c>
+      <c r="E9" s="17">
+        <f t="shared" si="0"/>
+        <v>12.979948760999999</v>
+      </c>
+      <c r="F9" s="27"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10">
+        <v>10.600000000000001</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>443.80080000000009</v>
+      </c>
+      <c r="D10">
+        <v>77.400000000000006</v>
+      </c>
+      <c r="E10" s="17">
+        <f t="shared" si="0"/>
+        <v>3.4350181920000007E-2</v>
+      </c>
+      <c r="F10" s="27"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="17">
+        <f>SUM(E5:E10)</f>
+        <v>14.292736543529999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="E12" s="17"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="17"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>219.44104244999994</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="1"/>
+        <v>9187.5575652965981</v>
+      </c>
+      <c r="D14">
+        <v>14.2</v>
+      </c>
+      <c r="E14" s="17">
+        <f>B14*$B$53*D14/10^6</f>
+        <v>0.13046331742721168</v>
+      </c>
+      <c r="F14" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14">
+        <v>7.9</v>
+      </c>
+      <c r="H14">
+        <f>G14*10^6/(C15+C16)/(D16+D15)</f>
+        <v>4.5223985822842094E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15">
+        <v>31410.314173820283</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>1315087.0338295077</v>
+      </c>
+      <c r="D15">
+        <v>56.1</v>
+      </c>
+      <c r="E15" s="17">
+        <f>B15*$B$53*D15/10^6</f>
+        <v>73.776382597835379</v>
+      </c>
+      <c r="F15" s="27"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16">
+        <v>3592.2438399999992</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>150400.06509311998</v>
+      </c>
+      <c r="D16">
+        <v>63.1</v>
+      </c>
+      <c r="E16" s="17">
+        <f>B16*$B$53*D16/10^6</f>
+        <v>9.4902441073758705</v>
+      </c>
+      <c r="F16" s="27"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="13"/>
+      <c r="E17" s="17">
+        <f>SUM(E14:E16)</f>
+        <v>83.397090022638466</v>
+      </c>
+      <c r="F17" s="10"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>3071.7863105175029</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="1"/>
+        <v>128609.54924874681</v>
+      </c>
+      <c r="D19">
+        <v>0.2525</v>
+      </c>
+      <c r="E19" s="17">
+        <f>C19*D19/10^6</f>
+        <v>3.2473911185308568E-2</v>
+      </c>
+      <c r="F19" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H19">
+        <f>G19*10^6/SUM(C20:C21,C23:C24)/SUM(D20:D21,D23:D24)</f>
+        <v>7.0184130967628992E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>7746.2437395658981</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="1"/>
+        <v>324319.73288814502</v>
+      </c>
+      <c r="D20">
+        <v>94.6</v>
+      </c>
+      <c r="E20" s="17">
+        <f t="shared" ref="E20:E24" si="2">C20*D20/10^6</f>
+        <v>30.680646731218516</v>
+      </c>
+      <c r="F20" s="27"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>1803.0050083472026</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="1"/>
+        <v>75488.21368948069</v>
+      </c>
+      <c r="D21">
+        <v>56.1</v>
+      </c>
+      <c r="E21" s="17">
+        <f t="shared" si="2"/>
+        <v>4.234888787979866</v>
+      </c>
+      <c r="F21" s="27"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22">
+        <v>6143.5726210350995</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="1"/>
+        <v>257219.09849749756</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F22" s="27"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>14757.9298831385</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="1"/>
+        <v>617885.00834724272</v>
+      </c>
+      <c r="D23">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="E23" s="17">
+        <f t="shared" si="2"/>
+        <v>45.785279118530681</v>
+      </c>
+      <c r="F23" s="27"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>467.44574290489641</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="1"/>
+        <v>19571.018363942203</v>
+      </c>
+      <c r="D24">
+        <v>77.400000000000006</v>
+      </c>
+      <c r="E24" s="17">
+        <f t="shared" si="2"/>
+        <v>1.5147968213691267</v>
+      </c>
+      <c r="F24" s="27"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="E25" s="17">
+        <f>SUM(E19:E24)</f>
+        <v>82.248085370283505</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="17"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27">
+        <v>13180.148048452118</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="1"/>
+        <v>551826.43849259336</v>
+      </c>
+      <c r="D27">
+        <v>0.2525</v>
+      </c>
+      <c r="E27" s="17">
+        <f t="shared" ref="E27:E32" si="3">B27*$B$53*D27/10^6</f>
+        <v>0.13933617571937981</v>
+      </c>
+      <c r="F27" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="G27">
+        <v>2.4</v>
+      </c>
+      <c r="H27">
+        <f>SUM(G27:G28)*10^6/SUM(C28:C29,C31:C32)/SUM(D28:D29,D31:D32)</f>
+        <v>1.1694641627185941E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28">
+        <v>578.64064602959672</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="1"/>
+        <v>24226.526567967157</v>
+      </c>
+      <c r="D28">
+        <v>94.6</v>
+      </c>
+      <c r="E28" s="17">
+        <f t="shared" si="3"/>
+        <v>2.291829413329693</v>
+      </c>
+      <c r="F28" s="23"/>
+      <c r="G28">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29">
+        <v>16651.99192462987</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="1"/>
+        <v>697185.59790040343</v>
+      </c>
+      <c r="D29">
+        <v>56.1</v>
+      </c>
+      <c r="E29" s="17">
+        <f t="shared" si="3"/>
+        <v>39.112112042212637</v>
+      </c>
+      <c r="F29" s="23"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30">
+        <v>16651.99192462987</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="1"/>
+        <v>697185.59790040343</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F30" s="23"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31">
+        <v>11508.519515477739</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="1"/>
+        <v>481838.69507402199</v>
+      </c>
+      <c r="D31">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="E31" s="17">
+        <f t="shared" si="3"/>
+        <v>35.704247304985024</v>
+      </c>
+      <c r="F31" s="23"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32">
+        <v>321.46702557200001</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="1"/>
+        <v>13459.181426648498</v>
+      </c>
+      <c r="D32">
+        <v>77.400000000000006</v>
+      </c>
+      <c r="E32" s="17">
+        <f t="shared" si="3"/>
+        <v>1.0417406424225937</v>
+      </c>
+      <c r="F32" s="23"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="E33" s="17">
+        <f>SUM(E27:E32)</f>
+        <v>78.28926557866933</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34" s="17"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35">
+        <v>1119.2544792597041</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="1"/>
+        <v>46860.946537645294</v>
+      </c>
+      <c r="D35">
+        <v>0.2525</v>
+      </c>
+      <c r="E35" s="17">
+        <f>B35*$B$53*D35/10^6</f>
+        <v>1.1832389000755436E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36">
+        <v>719.29504530479005</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="1"/>
+        <v>30115.444956820953</v>
+      </c>
+      <c r="D36">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="E36" s="17">
+        <f>B36*$B$53*D36/10^6</f>
+        <v>2.2315544713004325</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="E37" s="17">
+        <f>SUM(E35:E36)</f>
+        <v>2.2433868603011877</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E38" s="17"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39">
+        <v>3158.9838709677406</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="1"/>
+        <v>132260.33670967736</v>
+      </c>
+      <c r="D39">
+        <v>0.2525</v>
+      </c>
+      <c r="E39" s="17">
+        <f>B39*$B$53*D39/10^6</f>
+        <v>3.3395735019193531E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B40">
+        <v>6472.0645161290358</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="1"/>
+        <v>270972.39716129046</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40" s="17">
+        <f>B40*$B$53*D40/10^6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B41">
+        <v>7858.9354838709651</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="1"/>
+        <v>329037.91083870956</v>
+      </c>
+      <c r="D41">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="E41" s="17">
+        <f>B41*$B$53*D41/10^6</f>
+        <v>24.381709193148378</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="E42" s="17">
+        <f>SUM(E39:E41)</f>
+        <v>24.415104928167572</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E43" s="17"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B44">
+        <v>23650.97273233028</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="1"/>
+        <v>990218.92635720421</v>
+      </c>
+      <c r="D44">
+        <v>0.2525</v>
+      </c>
+      <c r="E44" s="17">
+        <f t="shared" ref="E44:E50" si="4">B44*$B$53*D44/10^6</f>
+        <v>0.25003027890519408</v>
+      </c>
+      <c r="F44" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="G44">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="H44">
+        <f>G44*10^6/SUM(C45:C46,C48:C50)/SUM(D45:D46,D48:D50)</f>
+        <v>6.0066796813736105E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B45">
+        <v>1548.8428888112464</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="1"/>
+        <v>64846.95406874927</v>
+      </c>
+      <c r="D45">
+        <v>94.6</v>
+      </c>
+      <c r="E45" s="17">
+        <f t="shared" si="4"/>
+        <v>6.1345218549036806</v>
+      </c>
+      <c r="F45" s="27"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B46">
+        <v>9111.5042526819543</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="1"/>
+        <v>381480.46005128807</v>
+      </c>
+      <c r="D46">
+        <v>56.1</v>
+      </c>
+      <c r="E46" s="17">
+        <f t="shared" si="4"/>
+        <v>21.401053808877258</v>
+      </c>
+      <c r="F46" s="27"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B47">
+        <v>34573.70329975905</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="1"/>
+        <v>1447531.809754312</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F47" s="27"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B48">
+        <v>3075.512462406773</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="1"/>
+        <v>128765.55577604678</v>
+      </c>
+      <c r="D48">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="E48" s="17">
+        <f t="shared" si="4"/>
+        <v>9.5415276830050644</v>
+      </c>
+      <c r="F48" s="27"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B49">
+        <v>5693.412013158053</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="1"/>
+        <v>238371.77416690136</v>
+      </c>
+      <c r="D49">
+        <v>77.400000000000006</v>
+      </c>
+      <c r="E49" s="17">
+        <f t="shared" si="4"/>
+        <v>18.449975320518167</v>
+      </c>
+      <c r="F49" s="27"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B50">
+        <v>817.07107973794905</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="1"/>
+        <v>34209.131966468456</v>
+      </c>
+      <c r="D50">
+        <v>63.1</v>
+      </c>
+      <c r="E50" s="17">
+        <f t="shared" si="4"/>
+        <v>2.1585962270841597</v>
+      </c>
+      <c r="F50" s="27"/>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="E51" s="17">
+        <f>SUM(E44:E50)</f>
+        <v>57.935705173293528</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="1"/>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B53">
+        <f>0.041868*1000</f>
+        <v>41.868000000000002</v>
+      </c>
+      <c r="D53" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="13"/>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="13"/>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="13"/>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="13"/>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="13"/>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="13"/>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="13"/>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="13"/>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="13"/>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="13"/>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="13"/>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="13"/>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="13"/>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="13"/>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="13"/>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="13"/>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="13"/>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="13"/>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="13"/>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="13"/>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="14"/>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="13"/>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="13"/>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="13"/>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="13"/>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="15"/>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="15"/>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="15"/>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="13"/>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="13"/>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="13"/>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="13"/>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="13"/>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="13"/>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="16"/>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="13"/>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="13"/>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="13"/>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="13"/>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="13"/>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="13"/>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="13"/>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="13"/>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="13"/>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="13"/>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="1"/>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="13"/>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="13"/>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" s="13"/>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="13"/>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" s="13"/>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" s="13"/>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" s="13"/>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" s="13"/>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" s="13"/>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" s="13"/>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" s="1"/>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" s="13"/>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" s="13"/>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" s="13"/>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" s="13"/>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" s="13"/>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" s="13"/>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" s="13"/>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" s="13"/>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" s="13"/>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" s="13"/>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" s="1"/>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" s="13"/>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" s="13"/>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" s="13"/>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" s="13"/>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" s="13"/>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" s="13"/>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" s="13"/>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" s="13"/>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" s="13"/>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" s="13"/>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" s="1"/>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" s="13"/>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" s="13"/>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" s="13"/>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" s="13"/>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" s="13"/>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" s="13"/>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" s="13"/>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" s="13"/>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156" s="13"/>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157" s="13"/>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" s="13"/>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" s="13"/>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" s="13"/>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" s="13"/>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" s="13"/>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" s="13"/>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" s="13"/>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165" s="13"/>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166" s="13"/>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" s="13"/>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168" s="13"/>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169" s="13"/>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171" s="1"/>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172" s="13"/>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173" s="13"/>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174" s="13"/>
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175" s="13"/>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176" s="13"/>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177" s="13"/>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178" s="13"/>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179" s="13"/>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180" s="13"/>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181" s="13"/>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183" s="1"/>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184" s="13"/>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185" s="13"/>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186" s="13"/>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187" s="13"/>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188" s="13"/>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189" s="13"/>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190" s="13"/>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191" s="13"/>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192" s="13"/>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193" s="13"/>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195" s="1"/>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196" s="13"/>
+    </row>
+    <row r="197" spans="1:1">
+      <c r="A197" s="13"/>
+    </row>
+    <row r="198" spans="1:1">
+      <c r="A198" s="13"/>
+    </row>
+    <row r="199" spans="1:1">
+      <c r="A199" s="13"/>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200" s="13"/>
+    </row>
+    <row r="201" spans="1:1">
+      <c r="A201" s="13"/>
+    </row>
+    <row r="202" spans="1:1">
+      <c r="A202" s="13"/>
+    </row>
+    <row r="203" spans="1:1">
+      <c r="A203" s="13"/>
+    </row>
+    <row r="204" spans="1:1">
+      <c r="A204" s="13"/>
+    </row>
+    <row r="205" spans="1:1">
+      <c r="A205" s="13"/>
+    </row>
+    <row r="206" spans="1:1">
+      <c r="A206" s="14"/>
+    </row>
+    <row r="207" spans="1:1">
+      <c r="A207" s="13"/>
+    </row>
+    <row r="208" spans="1:1">
+      <c r="A208" s="13"/>
+    </row>
+    <row r="209" spans="1:1">
+      <c r="A209" s="13"/>
+    </row>
+    <row r="210" spans="1:1">
+      <c r="A210" s="13"/>
+    </row>
+    <row r="211" spans="1:1">
+      <c r="A211" s="13"/>
+    </row>
+    <row r="212" spans="1:1">
+      <c r="A212" s="13"/>
+    </row>
+    <row r="213" spans="1:1">
+      <c r="A213" s="13"/>
+    </row>
+    <row r="214" spans="1:1">
+      <c r="A214" s="13"/>
+    </row>
+    <row r="215" spans="1:1">
+      <c r="A215" s="13"/>
+    </row>
+    <row r="216" spans="1:1">
+      <c r="A216" s="13"/>
+    </row>
+    <row r="217" spans="1:1">
+      <c r="A217" s="14"/>
+    </row>
+    <row r="218" spans="1:1">
+      <c r="A218" s="13"/>
+    </row>
+    <row r="219" spans="1:1">
+      <c r="A219" s="13"/>
+    </row>
+    <row r="220" spans="1:1">
+      <c r="A220" s="13"/>
+    </row>
+    <row r="221" spans="1:1">
+      <c r="A221" s="13"/>
+    </row>
+    <row r="222" spans="1:1">
+      <c r="A222" s="13"/>
+    </row>
+    <row r="223" spans="1:1">
+      <c r="A223" s="13"/>
+    </row>
+    <row r="224" spans="1:1">
+      <c r="A224" s="13"/>
+    </row>
+    <row r="225" spans="1:1">
+      <c r="A225" s="13"/>
+    </row>
+    <row r="226" spans="1:1">
+      <c r="A226" s="13"/>
+    </row>
+    <row r="227" spans="1:1">
+      <c r="A227" s="13"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <mergeCells count="11">
+    <mergeCell ref="F44:F50"/>
+    <mergeCell ref="F27:F32"/>
+    <mergeCell ref="F19:F24"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="F5:F10"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="28.73046875" customWidth="1"/>
-    <col min="2" max="2" width="23.73046875" customWidth="1"/>
+    <col min="1" max="1" width="28.77734375" customWidth="1"/>
+    <col min="2" max="2" width="23.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B1" s="14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A2" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="10">
-        <f>Data!B$7</f>
-        <v>7.8688524590163927E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A3" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="10">
-        <f>Data!B$7</f>
-        <v>7.8688524590163927E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A4" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="10">
-        <f>Data!B$7</f>
-        <v>7.8688524590163927E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A5" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="10">
-        <f>Data!B$7</f>
-        <v>7.8688524590163927E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A6" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="10">
-        <f>Data!B$7</f>
-        <v>7.8688524590163927E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A7" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="10">
-        <f>Data!B$7</f>
-        <v>7.8688524590163927E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A8" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="13">
+    <row r="1" spans="1:2" ht="28.8">
+      <c r="B1" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="10">
-        <f>Data!B$7</f>
-        <v>7.8688524590163927E-2</v>
+      <c r="B2" s="4">
+        <f>'Data BR'!H5</f>
+        <v>7.0724661933415978E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4">
+        <f>'Data BR'!H14</f>
+        <v>4.5223985822842094E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4">
+        <f>'Data BR'!H19</f>
+        <v>7.0184130967628992E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4">
+        <f>'Data BR'!H27</f>
+        <v>1.1694641627185941E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4">
+        <f>0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4">
+        <f>0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4">
+        <f>'Data BR'!H44</f>
+        <v>6.0066796813736105E-2</v>
       </c>
     </row>
   </sheetData>
